--- a/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
@@ -1137,7 +1137,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Until 12:30</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1744,7 +1748,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Until 12:15</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">

--- a/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
@@ -1434,12 +1434,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Missy</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>work w/ Nate</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1509,12 +1509,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1664,13 +1664,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1729,12 +1728,13 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1796,13 +1796,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1864,12 +1863,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2126,12 +2126,13 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2166,9 +2167,21 @@
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2253,11 +2266,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2311,7 +2320,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2362,7 +2371,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2413,7 +2422,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>PICK #410, WATERFORD</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2464,7 +2473,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>515 N MILWAUKEE STREET</t>
+          <t>PICK #410, WATERFORD</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2515,7 +2524,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NZEymR8vwMs</t>
+          <t>515 N MILWAUKEE STREET</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2562,7 +2571,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/NZEymR8vwMs</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2629,7 +2638,11 @@
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
@@ -2695,21 +2708,9 @@
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2780,15 +2781,19 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2861,12 +2866,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2924,12 +2929,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2991,20 +2996,15 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3016,7 +3016,11 @@
           <t>Missy</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>work w/ Michael</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
@@ -3051,15 +3055,20 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3116,20 +3125,15 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3165,7 +3169,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>5:15 AM MEET SOUTH RACINE COURT (HWY 42 &amp; Y)</t>
+          <t>5:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3189,15 +3193,20 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3252,12 +3261,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3315,12 +3324,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3382,12 +3391,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3439,8 +3448,16 @@
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
@@ -3523,7 +3540,8 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3539,7 +3557,11 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -3547,11 +3569,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
@@ -3581,22 +3599,13 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry, Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3605,7 +3614,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3629,14 +3638,10 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>BP- CUDAHY</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3652,7 +3657,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1105, BROOKFIELD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3677,7 +3682,11 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5606 S PACKARD AVE</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -3691,7 +3700,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>16985 W BLUEMOUND - SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1105, BROOKFIELD</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3720,7 +3729,11 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/r27WkC5fJxakWMxN7</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3734,7 +3747,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jH8mU5GKz9qMkuhD8</t>
+          <t>16985 W BLUEMOUND - SUITE 100</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3763,11 +3776,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -3779,7 +3788,11 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/jH8mU5GKz9qMkuhD8</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3805,13 +3818,22 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry, Equip</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
@@ -3821,21 +3843,9 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
@@ -3860,8 +3870,16 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -3874,15 +3892,19 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
@@ -3911,8 +3933,16 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -4000,7 +4030,11 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
@@ -4055,7 +4089,11 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>

--- a/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
@@ -525,8 +525,16 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
     </row>
@@ -536,24 +544,64 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -563,24 +611,56 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -606,8 +686,16 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>

--- a/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
@@ -1332,7 +1332,11 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -1399,7 +1403,11 @@
           <t>Charletta</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -2863,7 +2871,8 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -3013,7 +3022,11 @@
           <t>Charletta</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>

--- a/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2151,7 +2151,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FESTIVAL #2732, APPLETON-NORTHLAND - LIFO</t>
+          <t>FESTIVAL #2732, APPLETON - NORTHLAND - LIFO</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2905,7 +2905,7 @@
       <c r="S43" t="inlineStr">
         <is>
           <t>Driver,
-Red Van,
+Optima,
 Supv Rx</t>
         </is>
       </c>
@@ -3038,7 +3038,12 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3114,12 +3119,12 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Missy</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3167,7 +3172,7 @@
       <c r="O47" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Wht Camry</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -3178,7 +3183,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3243,7 +3248,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3316,7 +3321,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3379,7 +3384,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3442,7 +3447,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3509,12 +3514,13 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3568,13 +3574,13 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Trainer</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3636,13 +3642,12 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3673,21 +3678,9 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3764,7 +3757,11 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3809,7 +3806,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3856,7 +3853,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3899,7 +3896,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2716, APPLETON - DARBOY - LIFO</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3951,7 +3948,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>FESTIVAL #2716, APPLETON - DARBOY - LIFO</t>
+          <t>W3195 VAN ROY RD</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -4010,7 +4007,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>W3195 VAN ROY RD</t>
+          <t>https://goo.gl/maps/57s41PSXiLJ2</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -4047,11 +4044,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/57s41PSXiLJ2</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
@@ -4102,9 +4095,21 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
@@ -4156,17 +4161,18 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
@@ -4207,20 +4213,15 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
@@ -4259,15 +4260,19 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
@@ -4306,12 +4311,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4357,12 +4362,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4408,12 +4413,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4459,12 +4464,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4510,12 +4515,12 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -4561,12 +4566,12 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -4612,12 +4617,12 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -4663,12 +4668,12 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -4702,12 +4707,12 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -4741,12 +4746,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -4761,45 +4766,6 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
@@ -2612,7 +2612,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>FULL RESET-</t>
+          <t xml:space="preserve">FULL RESET-REMAPPED </t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>

--- a/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
@@ -1238,10 +1238,14 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Charletta</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>work w/ Nate</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1313,14 +1317,10 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1388,10 +1388,14 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1459,7 +1463,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1530,14 +1534,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Missy</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>work w/ Nate</t>
-        </is>
-      </c>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>

--- a/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
@@ -1668,7 +1668,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1744,12 +1744,13 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1807,13 +1808,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2081,21 +2081,9 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
@@ -2212,7 +2200,11 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET BAYSHORE</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
@@ -2258,7 +2250,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>4:45 AM MEET BAYSHORE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2305,7 +2297,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2356,7 +2348,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #185 +RX, MANITOWOC</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2408,7 +2400,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>PICK #185 +RX, MANITOWOC</t>
+          <t>3300 CALUMET AVE</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2459,7 +2451,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>3300 CALUMET AVE</t>
+          <t>https://goo.gl/maps/yGAWXUWhj222</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2510,7 +2502,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/yGAWXUWhj222</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2561,7 +2553,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t xml:space="preserve">FULL RESET-REMAPPED </t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2610,11 +2602,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FULL RESET-REMAPPED </t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2660,9 +2648,22 @@
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>@ Store,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
@@ -2718,20 +2719,15 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>@ Store,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2794,15 +2790,20 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -2861,20 +2862,15 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -2951,15 +2947,19 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Charletta</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -3014,17 +3014,17 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Charletta</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -3086,19 +3086,15 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
@@ -3149,15 +3145,21 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
@@ -3213,19 +3215,18 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>Driver,
-Wht Camry,
-Supv Rx</t>
+Red Van</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -3282,20 +3283,15 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
@@ -3355,12 +3351,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3418,15 +3414,19 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
@@ -3481,19 +3481,15 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
@@ -3545,15 +3541,19 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
@@ -3615,21 +3615,9 @@
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -3702,7 +3690,11 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET BAYSHORE</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3743,7 +3735,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3790,7 +3782,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3837,7 +3829,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1250, TWO RIVERS</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3880,7 +3872,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1250, TWO RIVERS</t>
+          <t>2219 GARFIELD STREET</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3936,7 +3928,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2219 GARFIELD STREET</t>
+          <t>https://goo.gl/maps/S9a2S4Cm7JD2</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3981,11 +3973,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/S9a2S4Cm7JD2</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
@@ -4027,9 +4015,22 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
@@ -4076,20 +4077,15 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -4143,16 +4139,8 @@
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>

--- a/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Milwaukee Schedule.xlsx
@@ -713,7 +713,11 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Red Van appointment at Lutters</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
